--- a/biology/Mycologie/Sulfate_de_cuivre/Sulfate_de_cuivre.xlsx
+++ b/biology/Mycologie/Sulfate_de_cuivre/Sulfate_de_cuivre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le sulfate de cuivre(II), couramment désigné sous le simple nom de sulfate de cuivre, est le composé chimique ionique ou sel anhydre blanc formé par le cation cuivre(II) (Cu2+) et l'anion sulfate (SO42− ), caractérisé par la formule chimique CuSO4.
@@ -513,9 +525,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Sulfate de cuivre est affublé de nombreux noms : sulfate de deutoxyde de cuivre, couperose bleue, cuivre vitriolé, vitriol bleu, vitriol de cuivre, vitriol de Chypre[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Sulfate de cuivre est affublé de nombreux noms : sulfate de deutoxyde de cuivre, couperose bleue, cuivre vitriolé, vitriol bleu, vitriol de cuivre, vitriol de Chypre.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sulfate de cuivre anhydre CuSO4 est blanc (grisâtre par ses impuretés). Il est hygroscopique et bleuit au contact de l'eau ou de la vapeur d'eau en formant le pentahydrate CuSO4.5H2O. Cette propriété d'hydratation où la transformation du corps chimique anhydre en composé hydraté est corrélative d'un changement de coloration caractéristique explique son usage comme test de la présence d'eau dans un liquide, un milieu aérosol ou l'air ambiant.
 Le sulfate de cuivre est facilement soluble dans l'eau.
@@ -579,7 +595,9 @@
           <t>Fabrication industrielle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sulfate de cuivre est obtenu industriellement comme sous-produit du décapage chimique du cuivre par l'acide sulfurique. Cet acide n'attaquant pas le cuivre métallique, seule sa forme oxydée présente en surface sous forme d'oxydes, de carbonates (vert de gris) et autres, passe en solution. Dans ces conditions, seul le degré d'oxydation II (forme cuivrique) est stable.
 La solution bleue de décapage est ensuite cristallisée dans des bacs (en cuivre) dans lesquels plongent des barres (en cuivre également). Les cristaux de sulfate de cuivre hydraté se forment en quelques heures à la surface du récipient et des barres. La couche de cristaux peut atteindre plusieurs centimètres d'épaisseur (de 5 à 15 ou plus).
@@ -612,14 +630,16 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Une des principales utilisations actuelles du sulfate de cuivre est la préparation (industrielle ou non) de fongicides pour l'agriculture y compris biologique (toutefois l’Union européenne a fixé à 150 mg·kg-1 la teneur maximale des sols en cuivre en agriculture biologique).
 Les formes les plus courantes sont la bouillie bordelaise constituée de sulfate de cuivre et de chaux et la bouillie bourguignonne constituée de sulfate de cuivre et de bicarbonate de soude. Chaux et bicarbonate neutralisent l'acidité créée par la mise en solution du sulfate de cuivre.
 Les végétaux traités par une préparation à base de sulfate de cuivre présentent des taches bleu-pâle constituées de sels mixtes d'hydroxyde et de sulfate de cuivre.
 Le sulfate de cuivre a été préconisé dès le début du XIXe siècle en traitement des semences, puis utilisé vers le milieu du siècle, sous une forme proche de la bouillie bordelaise, pour décourager les voleurs de raisin, puis comme fongicide anti-mildiou, sur vigne, à partir de 1880.
 Le sulfate de cuivre hydraté, jadis appelé « vitriol bleu », a été longtemps utilisé comme désherbant chimique (en particulier des pommes de terre). Il entre dans la composition des algicides, vendus dans le commerce pour l'entretien des piscines alors que certains sites spécialisés recommandent aux particuliers de ne pas l'utiliser directement pour leur piscine.
-Le sulfate de cuivre est aussi employé comme apport d'oligo-élément (cuivre), aussi bien en cas de carence en cuivre des végétaux, que des animaux (maladie du tour de l'œil blanc des bovins par exemple). Dans les élevages de porcs, il est régulièrement employé en complément minéral dans la nourriture, pour favoriser la prise de poids. C'est un complément alimentaire autorisé dans les denrées alimentaires[7].
+Le sulfate de cuivre est aussi employé comme apport d'oligo-élément (cuivre), aussi bien en cas de carence en cuivre des végétaux, que des animaux (maladie du tour de l'œil blanc des bovins par exemple). Dans les élevages de porcs, il est régulièrement employé en complément minéral dans la nourriture, pour favoriser la prise de poids. C'est un complément alimentaire autorisé dans les denrées alimentaires.
 </t>
         </is>
       </c>
@@ -648,15 +668,17 @@
           <t>Dangers, pollution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sulfate de cuivre est un produit toxique :
 nocif en cas d'ingestion ;
 irritant pour les yeux et pour la peau ;
 très toxique pour les organismes aquatiques (marins tout particulièrement) ;
-le cuivre qu'il contient peut s'accumuler dans les sols, notamment au pied des pentes. L'érosion hydrique ou éolienne des sols peut alors devenir une source significative de transfert de pollution[8].
-Utilisé de manière chronique (annuellement), il peut entraîner des effets néfastes à moyen et long terme pour l'environnement aquatique[9].
-Il est également suspecté de favoriser l'apparition de la maladie de Parkinson[10].
+le cuivre qu'il contient peut s'accumuler dans les sols, notamment au pied des pentes. L'érosion hydrique ou éolienne des sols peut alors devenir une source significative de transfert de pollution.
+Utilisé de manière chronique (annuellement), il peut entraîner des effets néfastes à moyen et long terme pour l'environnement aquatique.
+Il est également suspecté de favoriser l'apparition de la maladie de Parkinson.
 Ce produit est donc à manipuler avec attention, en utilisant gants, masque et lunettes de protection à chaque utilisation.
 	Différentes formes du sulfate de cuivre
 			Maille élémentaire.
